--- a/medicine/Enfance/T._Trilby/T._Trilby.xlsx
+++ b/medicine/Enfance/T._Trilby/T._Trilby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">T. Trilby, pseudonyme de Thérèse de Marnyhac (1875 - 1962) est une femme de lettres française. Elle a aussi utilisé les pseudonymes Mme Louis Delhaye (nom d'alliance) et Marraine Odette.
 Elle a écrit des romans pour la jeunesse principalement, entre 1935 à 1961, illustrés par Manon Iessel, ainsi que des romans pour jeunes femmes.
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née d'un père marchand à Paris, elle a été éduquée de façon stricte. Pendant la Grande Guerre, elle est infirmière de la Croix-Rouge (et recevra la Légion d'Honneur). La guerre terminée, elle poursuivra son activité à la Croix-Rouge et s'occupera de jeunes filles en difficulté.
 En 1899, elle épouse Louis Delhaye, un industriel, dont elle a un fils.
 D'une nature optimiste et enthousiaste, elle souhaite, par ses écrits, transmettre aux enfants et aux jeunes gens, les valeurs morales qui lui ont été enseignées : admiration de l'armée, esprit colonialiste, proximité avec les Croix-de-Feu, hostilité au Front Populaire (dans Bouboule chez les Croix-de-feu (1936) et dans Bouboule et le Front populaire (1937)).
-Deux de ses romans ont été couronnés par l'Académie française : Le Retour (prix Montyon en 1920) et En avant. Le petit roi des forains (prix Sobrier-Arnould en 1949)[1].
-Depuis 1993, les Éditions du Triomphe ont réédité 35 de ses œuvres[2].
-Elle est considérée par Paul Renard comme une « romancière d'extrême droite »[3],[4].
+Deux de ses romans ont été couronnés par l'Académie française : Le Retour (prix Montyon en 1920) et En avant. Le petit roi des forains (prix Sobrier-Arnould en 1949).
+Depuis 1993, les Éditions du Triomphe ont réédité 35 de ses œuvres.
+Elle est considérée par Paul Renard comme une « romancière d'extrême droite »,.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste exhaustive établie selon la Bibliothèque nationale de France. La date est celle de la première parution)
 1903 : Vicieuse
@@ -641,7 +657,7 @@
 1954 : Il y a toujours un lendemain
 1954 : Princesse de rêve et d'infortune
 1955 : Cordon s'il vous plaît
-1955 : La Messe pour les jeunes[5]
+1955 : La Messe pour les jeunes
 1955 : Cœurs en grève
 1956 : Kounto et ses amis''
 1956 : Donnez-moi la puissance d'aimer
@@ -687,11 +703,13 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur
 Prix Montyon en 1920 pour Le Retour.
-Prix de l'Académie française en 1949 pour : En avant et Le Petit Roi des forains ((Prix Sobrier-Arnould)[1]</t>
+Prix de l'Académie française en 1949 pour : En avant et Le Petit Roi des forains ((Prix Sobrier-Arnould)</t>
         </is>
       </c>
     </row>
